--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130766137</v>
       </c>
       <c r="B2" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130766153</v>
       </c>
       <c r="B3" t="n">
-        <v>80373</v>
+        <v>80377</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>130766169</v>
       </c>
       <c r="B4" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>130766140</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,2911 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131066787</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80383</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>425069</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6712290</v>
+      </c>
+      <c r="S6" t="n">
+        <v>20</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131066788</v>
+      </c>
+      <c r="B7" t="n">
+        <v>83215</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>308</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>425211</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6712276</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131066771</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>425297</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6712214</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131066770</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>425323</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6712206</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131066783</v>
+      </c>
+      <c r="B10" t="n">
+        <v>83089</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>425170</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6712292</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131066760</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91771</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>425281</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6712191</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131066781</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83206</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6439</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gulnål</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>425072</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6712273</v>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131066780</v>
+      </c>
+      <c r="B13" t="n">
+        <v>83206</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6439</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gulnål</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>425163</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6712279</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131066792</v>
+      </c>
+      <c r="B14" t="n">
+        <v>83215</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>308</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>425067</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6712259</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131066761</v>
+      </c>
+      <c r="B15" t="n">
+        <v>91771</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>425072</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6712273</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131066768</v>
+      </c>
+      <c r="B16" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>425256</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6712203</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131066769</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>425267</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6712232</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131066782</v>
+      </c>
+      <c r="B18" t="n">
+        <v>91822</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>425059</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6712253</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131066773</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>425271</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6712264</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131066775</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>425244</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6712292</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131066778</v>
+      </c>
+      <c r="B21" t="n">
+        <v>81228</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>425336</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6712202</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131066774</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>425250</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6712265</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131066766</v>
+      </c>
+      <c r="B23" t="n">
+        <v>92179</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>425069</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6712285</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131066786</v>
+      </c>
+      <c r="B24" t="n">
+        <v>83089</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>425073</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6712276</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131066765</v>
+      </c>
+      <c r="B25" t="n">
+        <v>91771</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>425059</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6712253</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131066762</v>
+      </c>
+      <c r="B26" t="n">
+        <v>91771</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>425059</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6712254</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131066789</v>
+      </c>
+      <c r="B27" t="n">
+        <v>83215</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>308</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>425178</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6712289</v>
+      </c>
+      <c r="S27" t="n">
+        <v>20</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131066791</v>
+      </c>
+      <c r="B28" t="n">
+        <v>83215</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>308</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>425070</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6712258</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131066777</v>
+      </c>
+      <c r="B29" t="n">
+        <v>92227</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6040186</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kötticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Leptoporus mollis</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>425259</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6712201</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131066772</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>425301</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6712219</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131066776</v>
+      </c>
+      <c r="B31" t="n">
+        <v>80349</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>425069</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6712285</v>
+      </c>
+      <c r="S31" t="n">
+        <v>20</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131066767</v>
+      </c>
+      <c r="B32" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>425259</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6712201</v>
+      </c>
+      <c r="S32" t="n">
+        <v>20</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131066790</v>
+      </c>
+      <c r="B33" t="n">
+        <v>83215</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>308</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>425164</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6712278</v>
+      </c>
+      <c r="S33" t="n">
+        <v>20</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131066784</v>
+      </c>
+      <c r="B34" t="n">
+        <v>83089</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>425170</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6712283</v>
+      </c>
+      <c r="S34" t="n">
+        <v>20</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,45 +1081,53 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066787</v>
+        <v>131066771</v>
       </c>
       <c r="B6" t="n">
-        <v>80383</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425069</v>
+        <v>425297</v>
       </c>
       <c r="R6" t="n">
-        <v>6712290</v>
+        <v>6712214</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1152,6 +1160,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1178,32 +1191,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066788</v>
+        <v>131066787</v>
       </c>
       <c r="B7" t="n">
-        <v>83215</v>
+        <v>80383</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1213,10 +1226,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425211</v>
+        <v>425069</v>
       </c>
       <c r="R7" t="n">
-        <v>6712276</v>
+        <v>6712290</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1275,10 +1288,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066771</v>
+        <v>131066788</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>83215</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1286,42 +1299,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425297</v>
+        <v>425211</v>
       </c>
       <c r="R8" t="n">
-        <v>6712214</v>
+        <v>6712276</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1354,11 +1359,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,42 +1396,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R9" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1464,11 +1456,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1495,10 +1482,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B10" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,34 +1493,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R10" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1566,6 +1561,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1980,32 +1980,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066761</v>
+        <v>131066782</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>91822</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425072</v>
+        <v>425059</v>
       </c>
       <c r="R15" t="n">
-        <v>6712273</v>
+        <v>6712253</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2077,32 +2077,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066768</v>
+        <v>131066761</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425256</v>
+        <v>425072</v>
       </c>
       <c r="R16" t="n">
-        <v>6712203</v>
+        <v>6712273</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066769</v>
+        <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,42 +2185,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425267</v>
+        <v>425256</v>
       </c>
       <c r="R17" t="n">
-        <v>6712232</v>
+        <v>6712203</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2253,11 +2245,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2284,10 +2271,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066782</v>
+        <v>131066769</v>
       </c>
       <c r="B18" t="n">
-        <v>91822</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2295,34 +2282,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>425059</v>
+        <v>425267</v>
       </c>
       <c r="R18" t="n">
-        <v>6712253</v>
+        <v>6712232</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2355,6 +2350,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131066773</v>
+        <v>131066775</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>425271</v>
+        <v>425244</v>
       </c>
       <c r="R19" t="n">
-        <v>6712264</v>
+        <v>6712292</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131066775</v>
+        <v>131066773</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>425244</v>
+        <v>425271</v>
       </c>
       <c r="R20" t="n">
-        <v>6712292</v>
+        <v>6712264</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2601,32 +2601,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066778</v>
+        <v>131066766</v>
       </c>
       <c r="B21" t="n">
-        <v>81228</v>
+        <v>92179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>2062</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425336</v>
+        <v>425069</v>
       </c>
       <c r="R21" t="n">
-        <v>6712202</v>
+        <v>6712285</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2808,32 +2808,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B23" t="n">
-        <v>92179</v>
+        <v>81228</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R23" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131066765</v>
+        <v>131066762</v>
       </c>
       <c r="B25" t="n">
         <v>91771</v>
@@ -3040,7 +3040,7 @@
         <v>425059</v>
       </c>
       <c r="R25" t="n">
-        <v>6712253</v>
+        <v>6712254</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131066762</v>
+        <v>131066765</v>
       </c>
       <c r="B26" t="n">
         <v>91771</v>
@@ -3137,7 +3137,7 @@
         <v>425059</v>
       </c>
       <c r="R26" t="n">
-        <v>6712254</v>
+        <v>6712253</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066772</v>
+        <v>131066776</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,42 +3499,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>425301</v>
+        <v>425069</v>
       </c>
       <c r="R30" t="n">
-        <v>6712219</v>
+        <v>6712285</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3567,11 +3559,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3598,10 +3585,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066776</v>
+        <v>131066772</v>
       </c>
       <c r="B31" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3609,34 +3596,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>425069</v>
+        <v>425301</v>
       </c>
       <c r="R31" t="n">
-        <v>6712285</v>
+        <v>6712219</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3669,6 +3664,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066790</v>
+        <v>131066784</v>
       </c>
       <c r="B33" t="n">
-        <v>83215</v>
+        <v>83089</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425164</v>
+        <v>425170</v>
       </c>
       <c r="R33" t="n">
-        <v>6712278</v>
+        <v>6712283</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131066784</v>
+        <v>131066790</v>
       </c>
       <c r="B34" t="n">
-        <v>83089</v>
+        <v>83215</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3900,21 +3900,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>425170</v>
+        <v>425164</v>
       </c>
       <c r="R34" t="n">
-        <v>6712283</v>
+        <v>6712278</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -3983,6 +3983,220 @@
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131082611</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5177</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>425297</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6712214</v>
+      </c>
+      <c r="S35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131082603</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5177</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>425301</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6712219</v>
+      </c>
+      <c r="S36" t="n">
+        <v>20</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,53 +1081,45 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066771</v>
+        <v>131066787</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>80383</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425297</v>
+        <v>425069</v>
       </c>
       <c r="R6" t="n">
-        <v>6712214</v>
+        <v>6712290</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1160,11 +1152,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1191,32 +1178,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066787</v>
+        <v>131066788</v>
       </c>
       <c r="B7" t="n">
-        <v>80383</v>
+        <v>83215</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6463</v>
+        <v>308</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1226,10 +1213,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425069</v>
+        <v>425211</v>
       </c>
       <c r="R7" t="n">
-        <v>6712290</v>
+        <v>6712276</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1288,10 +1275,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066788</v>
+        <v>131066771</v>
       </c>
       <c r="B8" t="n">
-        <v>83215</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1299,34 +1286,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425211</v>
+        <v>425297</v>
       </c>
       <c r="R8" t="n">
-        <v>6712276</v>
+        <v>6712214</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1359,6 +1354,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1178,10 +1178,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066788</v>
+        <v>131066771</v>
       </c>
       <c r="B7" t="n">
-        <v>83215</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,34 +1189,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425211</v>
+        <v>425297</v>
       </c>
       <c r="R7" t="n">
-        <v>6712276</v>
+        <v>6712214</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1249,6 +1257,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1275,10 +1288,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066771</v>
+        <v>131066788</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>83215</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1286,42 +1299,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425297</v>
+        <v>425211</v>
       </c>
       <c r="R8" t="n">
-        <v>6712214</v>
+        <v>6712276</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1354,11 +1359,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B9" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,34 +1396,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R9" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1456,6 +1464,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1482,10 +1495,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1493,42 +1506,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R10" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1561,11 +1566,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1980,10 +1980,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066782</v>
+        <v>131066768</v>
       </c>
       <c r="B15" t="n">
-        <v>91822</v>
+        <v>91808</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1991,21 +1991,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425059</v>
+        <v>425256</v>
       </c>
       <c r="R15" t="n">
-        <v>6712253</v>
+        <v>6712203</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2077,32 +2077,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066761</v>
+        <v>131066782</v>
       </c>
       <c r="B16" t="n">
-        <v>91771</v>
+        <v>91822</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425072</v>
+        <v>425059</v>
       </c>
       <c r="R16" t="n">
-        <v>6712273</v>
+        <v>6712253</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,32 +2174,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066768</v>
+        <v>131066761</v>
       </c>
       <c r="B17" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425256</v>
+        <v>425072</v>
       </c>
       <c r="R17" t="n">
-        <v>6712203</v>
+        <v>6712273</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2601,32 +2601,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B21" t="n">
-        <v>92179</v>
+        <v>81228</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R21" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2698,53 +2698,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066774</v>
+        <v>131066766</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>92179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425250</v>
+        <v>425069</v>
       </c>
       <c r="R22" t="n">
-        <v>6712265</v>
+        <v>6712285</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2777,11 +2769,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2808,10 +2795,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B23" t="n">
-        <v>81228</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,34 +2806,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R23" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2879,6 +2874,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3002,7 +3002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131066762</v>
+        <v>131066765</v>
       </c>
       <c r="B25" t="n">
         <v>91771</v>
@@ -3040,7 +3040,7 @@
         <v>425059</v>
       </c>
       <c r="R25" t="n">
-        <v>6712254</v>
+        <v>6712253</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131066765</v>
+        <v>131066762</v>
       </c>
       <c r="B26" t="n">
         <v>91771</v>
@@ -3137,7 +3137,7 @@
         <v>425059</v>
       </c>
       <c r="R26" t="n">
-        <v>6712253</v>
+        <v>6712254</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066784</v>
+        <v>131066790</v>
       </c>
       <c r="B33" t="n">
-        <v>83089</v>
+        <v>83215</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425170</v>
+        <v>425164</v>
       </c>
       <c r="R33" t="n">
-        <v>6712283</v>
+        <v>6712278</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131066790</v>
+        <v>131066784</v>
       </c>
       <c r="B34" t="n">
-        <v>83215</v>
+        <v>83089</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3900,21 +3900,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>425164</v>
+        <v>425170</v>
       </c>
       <c r="R34" t="n">
-        <v>6712278</v>
+        <v>6712283</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,32 +1081,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066787</v>
+        <v>131066788</v>
       </c>
       <c r="B6" t="n">
-        <v>80383</v>
+        <v>83215</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>308</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425069</v>
+        <v>425211</v>
       </c>
       <c r="R6" t="n">
-        <v>6712290</v>
+        <v>6712276</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1288,32 +1288,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066788</v>
+        <v>131066787</v>
       </c>
       <c r="B8" t="n">
-        <v>83215</v>
+        <v>80383</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>6463</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425211</v>
+        <v>425069</v>
       </c>
       <c r="R8" t="n">
-        <v>6712276</v>
+        <v>6712290</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,42 +1396,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R9" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1464,11 +1456,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1495,10 +1482,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B10" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,34 +1493,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R10" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1566,6 +1561,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1980,32 +1980,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066768</v>
+        <v>131066761</v>
       </c>
       <c r="B15" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425256</v>
+        <v>425072</v>
       </c>
       <c r="R15" t="n">
-        <v>6712203</v>
+        <v>6712273</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2174,32 +2174,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066761</v>
+        <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>91771</v>
+        <v>91808</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425072</v>
+        <v>425256</v>
       </c>
       <c r="R17" t="n">
-        <v>6712273</v>
+        <v>6712203</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2601,32 +2601,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066778</v>
+        <v>131066766</v>
       </c>
       <c r="B21" t="n">
-        <v>81228</v>
+        <v>92179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>2062</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425336</v>
+        <v>425069</v>
       </c>
       <c r="R21" t="n">
-        <v>6712202</v>
+        <v>6712285</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2698,32 +2698,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B22" t="n">
-        <v>92179</v>
+        <v>81228</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R22" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131066765</v>
+        <v>131066762</v>
       </c>
       <c r="B25" t="n">
         <v>91771</v>
@@ -3040,7 +3040,7 @@
         <v>425059</v>
       </c>
       <c r="R25" t="n">
-        <v>6712253</v>
+        <v>6712254</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131066762</v>
+        <v>131066765</v>
       </c>
       <c r="B26" t="n">
         <v>91771</v>
@@ -3137,7 +3137,7 @@
         <v>425059</v>
       </c>
       <c r="R26" t="n">
-        <v>6712254</v>
+        <v>6712253</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066767</v>
+        <v>131066790</v>
       </c>
       <c r="B32" t="n">
-        <v>91808</v>
+        <v>83215</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3706,21 +3706,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>308</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>425259</v>
+        <v>425164</v>
       </c>
       <c r="R32" t="n">
-        <v>6712201</v>
+        <v>6712278</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066790</v>
+        <v>131066767</v>
       </c>
       <c r="B33" t="n">
-        <v>83215</v>
+        <v>91808</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425164</v>
+        <v>425259</v>
       </c>
       <c r="R33" t="n">
-        <v>6712278</v>
+        <v>6712201</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,10 +1081,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066788</v>
+        <v>131066771</v>
       </c>
       <c r="B6" t="n">
-        <v>83215</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,34 +1092,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425211</v>
+        <v>425297</v>
       </c>
       <c r="R6" t="n">
-        <v>6712276</v>
+        <v>6712214</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1152,6 +1160,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1178,10 +1191,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066771</v>
+        <v>131066788</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>83215</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,42 +1202,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425297</v>
+        <v>425211</v>
       </c>
       <c r="R7" t="n">
-        <v>6712214</v>
+        <v>6712276</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1257,11 +1262,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1980,32 +1980,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066761</v>
+        <v>131066782</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>91822</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425072</v>
+        <v>425059</v>
       </c>
       <c r="R15" t="n">
-        <v>6712273</v>
+        <v>6712253</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066782</v>
+        <v>131066768</v>
       </c>
       <c r="B16" t="n">
-        <v>91822</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2088,21 +2088,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425059</v>
+        <v>425256</v>
       </c>
       <c r="R16" t="n">
-        <v>6712253</v>
+        <v>6712203</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,32 +2174,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066768</v>
+        <v>131066761</v>
       </c>
       <c r="B17" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425256</v>
+        <v>425072</v>
       </c>
       <c r="R17" t="n">
-        <v>6712203</v>
+        <v>6712273</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2601,45 +2601,53 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066766</v>
+        <v>131066774</v>
       </c>
       <c r="B21" t="n">
-        <v>92179</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2062</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425069</v>
+        <v>425250</v>
       </c>
       <c r="R21" t="n">
-        <v>6712285</v>
+        <v>6712265</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2672,6 +2680,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2698,32 +2711,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066778</v>
+        <v>131066766</v>
       </c>
       <c r="B22" t="n">
-        <v>81228</v>
+        <v>92179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>2062</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2733,10 +2746,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425336</v>
+        <v>425069</v>
       </c>
       <c r="R22" t="n">
-        <v>6712202</v>
+        <v>6712285</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2795,10 +2808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066774</v>
+        <v>131066778</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>81228</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2806,42 +2819,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425250</v>
+        <v>425336</v>
       </c>
       <c r="R23" t="n">
-        <v>6712265</v>
+        <v>6712202</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2874,11 +2879,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3488,10 +3488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066776</v>
+        <v>131066772</v>
       </c>
       <c r="B30" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,34 +3499,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>425069</v>
+        <v>425301</v>
       </c>
       <c r="R30" t="n">
-        <v>6712285</v>
+        <v>6712219</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3559,6 +3567,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3585,10 +3598,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066772</v>
+        <v>131066776</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3596,42 +3609,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>425301</v>
+        <v>425069</v>
       </c>
       <c r="R31" t="n">
-        <v>6712219</v>
+        <v>6712285</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3664,11 +3669,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3695,10 +3695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066790</v>
+        <v>131066767</v>
       </c>
       <c r="B32" t="n">
-        <v>83215</v>
+        <v>91808</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3706,21 +3706,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>308</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>425164</v>
+        <v>425259</v>
       </c>
       <c r="R32" t="n">
-        <v>6712278</v>
+        <v>6712201</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066767</v>
+        <v>131066790</v>
       </c>
       <c r="B33" t="n">
-        <v>91808</v>
+        <v>83215</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425259</v>
+        <v>425164</v>
       </c>
       <c r="R33" t="n">
-        <v>6712201</v>
+        <v>6712278</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,10 +1081,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066771</v>
+        <v>131066788</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>83215</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,42 +1092,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425297</v>
+        <v>425211</v>
       </c>
       <c r="R6" t="n">
-        <v>6712214</v>
+        <v>6712276</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1160,11 +1152,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1191,32 +1178,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066788</v>
+        <v>131066787</v>
       </c>
       <c r="B7" t="n">
-        <v>83215</v>
+        <v>80383</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1226,10 +1213,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425211</v>
+        <v>425069</v>
       </c>
       <c r="R7" t="n">
-        <v>6712276</v>
+        <v>6712290</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1288,45 +1275,53 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066787</v>
+        <v>131066771</v>
       </c>
       <c r="B8" t="n">
-        <v>80383</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425069</v>
+        <v>425297</v>
       </c>
       <c r="R8" t="n">
-        <v>6712290</v>
+        <v>6712214</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1359,6 +1354,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B9" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,34 +1396,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R9" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1456,6 +1464,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1482,10 +1495,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1493,42 +1506,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R10" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1561,11 +1566,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1980,10 +1980,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066782</v>
+        <v>131066769</v>
       </c>
       <c r="B15" t="n">
-        <v>91822</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1991,34 +1991,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425059</v>
+        <v>425267</v>
       </c>
       <c r="R15" t="n">
-        <v>6712253</v>
+        <v>6712232</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2051,6 +2059,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2077,32 +2090,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066768</v>
+        <v>131066761</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2125,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425256</v>
+        <v>425072</v>
       </c>
       <c r="R16" t="n">
-        <v>6712203</v>
+        <v>6712273</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,32 +2187,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066761</v>
+        <v>131066782</v>
       </c>
       <c r="B17" t="n">
-        <v>91771</v>
+        <v>91822</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425072</v>
+        <v>425059</v>
       </c>
       <c r="R17" t="n">
-        <v>6712273</v>
+        <v>6712253</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2271,10 +2284,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066769</v>
+        <v>131066768</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2282,42 +2295,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>425267</v>
+        <v>425256</v>
       </c>
       <c r="R18" t="n">
-        <v>6712232</v>
+        <v>6712203</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2350,11 +2355,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2601,53 +2601,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066774</v>
+        <v>131066766</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>92179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425250</v>
+        <v>425069</v>
       </c>
       <c r="R21" t="n">
-        <v>6712265</v>
+        <v>6712285</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2680,11 +2672,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2711,32 +2698,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B22" t="n">
-        <v>92179</v>
+        <v>81228</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2746,10 +2733,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R22" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2808,10 +2795,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B23" t="n">
-        <v>81228</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,34 +2806,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R23" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2879,6 +2874,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3695,10 +3695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066767</v>
+        <v>131066790</v>
       </c>
       <c r="B32" t="n">
-        <v>91808</v>
+        <v>83215</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3706,21 +3706,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>308</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>425259</v>
+        <v>425164</v>
       </c>
       <c r="R32" t="n">
-        <v>6712201</v>
+        <v>6712278</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066790</v>
+        <v>131066767</v>
       </c>
       <c r="B33" t="n">
-        <v>83215</v>
+        <v>91808</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425164</v>
+        <v>425259</v>
       </c>
       <c r="R33" t="n">
-        <v>6712278</v>
+        <v>6712201</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,42 +1396,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R9" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1464,11 +1456,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1495,10 +1482,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B10" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,34 +1493,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R10" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1566,6 +1561,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1980,53 +1980,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066769</v>
+        <v>131066761</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>91771</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425267</v>
+        <v>425072</v>
       </c>
       <c r="R15" t="n">
-        <v>6712232</v>
+        <v>6712273</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2059,11 +2051,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2090,32 +2077,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066761</v>
+        <v>131066782</v>
       </c>
       <c r="B16" t="n">
-        <v>91771</v>
+        <v>91822</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2125,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425072</v>
+        <v>425059</v>
       </c>
       <c r="R16" t="n">
-        <v>6712273</v>
+        <v>6712253</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2187,10 +2174,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066782</v>
+        <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>91822</v>
+        <v>91808</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2185,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425059</v>
+        <v>425256</v>
       </c>
       <c r="R17" t="n">
-        <v>6712253</v>
+        <v>6712203</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2284,10 +2271,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066768</v>
+        <v>131066769</v>
       </c>
       <c r="B18" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2295,34 +2282,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>425256</v>
+        <v>425267</v>
       </c>
       <c r="R18" t="n">
-        <v>6712203</v>
+        <v>6712232</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2355,6 +2350,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -3488,10 +3488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066772</v>
+        <v>131066776</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,42 +3499,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>425301</v>
+        <v>425069</v>
       </c>
       <c r="R30" t="n">
-        <v>6712219</v>
+        <v>6712285</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3567,11 +3559,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3598,10 +3585,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066776</v>
+        <v>131066772</v>
       </c>
       <c r="B31" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3609,34 +3596,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>425069</v>
+        <v>425301</v>
       </c>
       <c r="R31" t="n">
-        <v>6712285</v>
+        <v>6712219</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3669,6 +3664,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3695,10 +3695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066790</v>
+        <v>131066767</v>
       </c>
       <c r="B32" t="n">
-        <v>83215</v>
+        <v>91808</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3706,21 +3706,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>308</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>425164</v>
+        <v>425259</v>
       </c>
       <c r="R32" t="n">
-        <v>6712278</v>
+        <v>6712201</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066767</v>
+        <v>131066790</v>
       </c>
       <c r="B33" t="n">
-        <v>91808</v>
+        <v>83215</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425259</v>
+        <v>425164</v>
       </c>
       <c r="R33" t="n">
-        <v>6712201</v>
+        <v>6712278</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1084,7 +1084,7 @@
         <v>131066788</v>
       </c>
       <c r="B6" t="n">
-        <v>83215</v>
+        <v>83216</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>131066787</v>
       </c>
       <c r="B7" t="n">
-        <v>80383</v>
+        <v>80384</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B9" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,34 +1396,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R9" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1456,6 +1464,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1482,10 +1495,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>83090</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1493,42 +1506,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R10" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1561,11 +1566,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1595,7 +1595,7 @@
         <v>131066760</v>
       </c>
       <c r="B11" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>131066781</v>
       </c>
       <c r="B12" t="n">
-        <v>83206</v>
+        <v>83207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>131066780</v>
       </c>
       <c r="B13" t="n">
-        <v>83206</v>
+        <v>83207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>131066792</v>
       </c>
       <c r="B14" t="n">
-        <v>83215</v>
+        <v>83216</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>131066761</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>131066782</v>
       </c>
       <c r="B16" t="n">
-        <v>91822</v>
+        <v>91823</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2601,32 +2601,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B21" t="n">
-        <v>92179</v>
+        <v>81229</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R21" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2698,32 +2698,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066778</v>
+        <v>131066766</v>
       </c>
       <c r="B22" t="n">
-        <v>81228</v>
+        <v>92180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>2062</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425336</v>
+        <v>425069</v>
       </c>
       <c r="R22" t="n">
-        <v>6712202</v>
+        <v>6712285</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2908,7 +2908,7 @@
         <v>131066786</v>
       </c>
       <c r="B24" t="n">
-        <v>83089</v>
+        <v>83090</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>131066762</v>
       </c>
       <c r="B25" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>131066765</v>
       </c>
       <c r="B26" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>131066789</v>
       </c>
       <c r="B27" t="n">
-        <v>83215</v>
+        <v>83216</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>131066791</v>
       </c>
       <c r="B28" t="n">
-        <v>83215</v>
+        <v>83216</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>131066777</v>
       </c>
       <c r="B29" t="n">
-        <v>92227</v>
+        <v>92228</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>131066776</v>
       </c>
       <c r="B30" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>131066767</v>
       </c>
       <c r="B32" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>131066790</v>
       </c>
       <c r="B33" t="n">
-        <v>83215</v>
+        <v>83216</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>131066784</v>
       </c>
       <c r="B34" t="n">
-        <v>83089</v>
+        <v>83090</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1178,45 +1178,53 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066787</v>
+        <v>131066771</v>
       </c>
       <c r="B7" t="n">
-        <v>80384</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425069</v>
+        <v>425297</v>
       </c>
       <c r="R7" t="n">
-        <v>6712290</v>
+        <v>6712214</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1249,6 +1257,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1275,53 +1288,45 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066771</v>
+        <v>131066787</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>80384</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425297</v>
+        <v>425069</v>
       </c>
       <c r="R8" t="n">
-        <v>6712214</v>
+        <v>6712290</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1354,11 +1359,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131066775</v>
+        <v>131066773</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>425244</v>
+        <v>425271</v>
       </c>
       <c r="R19" t="n">
-        <v>6712292</v>
+        <v>6712264</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131066773</v>
+        <v>131066775</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>425271</v>
+        <v>425244</v>
       </c>
       <c r="R20" t="n">
-        <v>6712264</v>
+        <v>6712292</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B21" t="n">
-        <v>81229</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2612,34 +2612,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R21" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2672,6 +2680,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2795,10 +2808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066774</v>
+        <v>131066778</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>81229</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2806,42 +2819,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425250</v>
+        <v>425336</v>
       </c>
       <c r="R23" t="n">
-        <v>6712265</v>
+        <v>6712202</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2874,11 +2879,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3002,7 +3002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131066762</v>
+        <v>131066765</v>
       </c>
       <c r="B25" t="n">
         <v>91772</v>
@@ -3040,7 +3040,7 @@
         <v>425059</v>
       </c>
       <c r="R25" t="n">
-        <v>6712254</v>
+        <v>6712253</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131066765</v>
+        <v>131066762</v>
       </c>
       <c r="B26" t="n">
         <v>91772</v>
@@ -3137,7 +3137,7 @@
         <v>425059</v>
       </c>
       <c r="R26" t="n">
-        <v>6712253</v>
+        <v>6712254</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,32 +1081,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066788</v>
+        <v>131066787</v>
       </c>
       <c r="B6" t="n">
-        <v>83216</v>
+        <v>80384</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>308</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425211</v>
+        <v>425069</v>
       </c>
       <c r="R6" t="n">
-        <v>6712276</v>
+        <v>6712290</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1288,32 +1288,32 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066787</v>
+        <v>131066788</v>
       </c>
       <c r="B8" t="n">
-        <v>80384</v>
+        <v>83216</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6463</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425069</v>
+        <v>425211</v>
       </c>
       <c r="R8" t="n">
-        <v>6712290</v>
+        <v>6712276</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1980,32 +1980,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066761</v>
+        <v>131066768</v>
       </c>
       <c r="B15" t="n">
-        <v>91772</v>
+        <v>91809</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425072</v>
+        <v>425256</v>
       </c>
       <c r="R15" t="n">
-        <v>6712273</v>
+        <v>6712203</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2077,32 +2077,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066782</v>
+        <v>131066761</v>
       </c>
       <c r="B16" t="n">
-        <v>91823</v>
+        <v>91772</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425059</v>
+        <v>425072</v>
       </c>
       <c r="R16" t="n">
-        <v>6712253</v>
+        <v>6712273</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066768</v>
+        <v>131066782</v>
       </c>
       <c r="B17" t="n">
-        <v>91809</v>
+        <v>91823</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,21 +2185,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425256</v>
+        <v>425059</v>
       </c>
       <c r="R17" t="n">
-        <v>6712203</v>
+        <v>6712253</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131066773</v>
+        <v>131066775</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>425271</v>
+        <v>425244</v>
       </c>
       <c r="R19" t="n">
-        <v>6712264</v>
+        <v>6712292</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131066775</v>
+        <v>131066773</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>425244</v>
+        <v>425271</v>
       </c>
       <c r="R20" t="n">
-        <v>6712292</v>
+        <v>6712264</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066774</v>
+        <v>131066778</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>81229</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2612,42 +2612,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425250</v>
+        <v>425336</v>
       </c>
       <c r="R21" t="n">
-        <v>6712265</v>
+        <v>6712202</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2680,11 +2672,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2808,10 +2795,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B23" t="n">
-        <v>81229</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,34 +2806,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R23" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2879,6 +2874,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3695,10 +3695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066767</v>
+        <v>131066784</v>
       </c>
       <c r="B32" t="n">
-        <v>91809</v>
+        <v>83090</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3706,21 +3706,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>425259</v>
+        <v>425170</v>
       </c>
       <c r="R32" t="n">
-        <v>6712201</v>
+        <v>6712283</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066790</v>
+        <v>131066767</v>
       </c>
       <c r="B33" t="n">
-        <v>83216</v>
+        <v>91809</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425164</v>
+        <v>425259</v>
       </c>
       <c r="R33" t="n">
-        <v>6712278</v>
+        <v>6712201</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131066784</v>
+        <v>131066790</v>
       </c>
       <c r="B34" t="n">
-        <v>83090</v>
+        <v>83216</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3900,21 +3900,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>425170</v>
+        <v>425164</v>
       </c>
       <c r="R34" t="n">
-        <v>6712283</v>
+        <v>6712278</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1178,10 +1178,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066771</v>
+        <v>131066788</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>83216</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,42 +1189,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425297</v>
+        <v>425211</v>
       </c>
       <c r="R7" t="n">
-        <v>6712214</v>
+        <v>6712276</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1257,11 +1249,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1288,10 +1275,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066788</v>
+        <v>131066771</v>
       </c>
       <c r="B8" t="n">
-        <v>83216</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1299,34 +1286,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425211</v>
+        <v>425297</v>
       </c>
       <c r="R8" t="n">
-        <v>6712276</v>
+        <v>6712214</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1359,6 +1354,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131066770</v>
+        <v>131066783</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>83090</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1396,42 +1396,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>425323</v>
+        <v>425170</v>
       </c>
       <c r="R9" t="n">
-        <v>6712206</v>
+        <v>6712292</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1464,11 +1456,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1495,10 +1482,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066783</v>
+        <v>131066770</v>
       </c>
       <c r="B10" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,34 +1493,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>425170</v>
+        <v>425323</v>
       </c>
       <c r="R10" t="n">
-        <v>6712292</v>
+        <v>6712206</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1566,6 +1561,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1980,10 +1980,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066768</v>
+        <v>131066782</v>
       </c>
       <c r="B15" t="n">
-        <v>91809</v>
+        <v>91823</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1991,21 +1991,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425256</v>
+        <v>425059</v>
       </c>
       <c r="R15" t="n">
-        <v>6712203</v>
+        <v>6712253</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2077,32 +2077,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066761</v>
+        <v>131066768</v>
       </c>
       <c r="B16" t="n">
-        <v>91772</v>
+        <v>91809</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425072</v>
+        <v>425256</v>
       </c>
       <c r="R16" t="n">
-        <v>6712273</v>
+        <v>6712203</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,32 +2174,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066782</v>
+        <v>131066761</v>
       </c>
       <c r="B17" t="n">
-        <v>91823</v>
+        <v>91772</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425059</v>
+        <v>425072</v>
       </c>
       <c r="R17" t="n">
-        <v>6712253</v>
+        <v>6712273</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B21" t="n">
-        <v>81229</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2612,34 +2612,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R21" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2672,6 +2680,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2795,10 +2808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066774</v>
+        <v>131066778</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>81229</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2806,42 +2819,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425250</v>
+        <v>425336</v>
       </c>
       <c r="R23" t="n">
-        <v>6712265</v>
+        <v>6712202</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2874,11 +2879,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3002,7 +3002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131066765</v>
+        <v>131066762</v>
       </c>
       <c r="B25" t="n">
         <v>91772</v>
@@ -3040,7 +3040,7 @@
         <v>425059</v>
       </c>
       <c r="R25" t="n">
-        <v>6712253</v>
+        <v>6712254</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131066762</v>
+        <v>131066765</v>
       </c>
       <c r="B26" t="n">
         <v>91772</v>
@@ -3137,7 +3137,7 @@
         <v>425059</v>
       </c>
       <c r="R26" t="n">
-        <v>6712254</v>
+        <v>6712253</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131066784</v>
+        <v>131066767</v>
       </c>
       <c r="B32" t="n">
-        <v>83090</v>
+        <v>91809</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3706,21 +3706,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>425170</v>
+        <v>425259</v>
       </c>
       <c r="R32" t="n">
-        <v>6712283</v>
+        <v>6712201</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131066767</v>
+        <v>131066790</v>
       </c>
       <c r="B33" t="n">
-        <v>91809</v>
+        <v>83216</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>425259</v>
+        <v>425164</v>
       </c>
       <c r="R33" t="n">
-        <v>6712201</v>
+        <v>6712278</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131066790</v>
+        <v>131066784</v>
       </c>
       <c r="B34" t="n">
-        <v>83216</v>
+        <v>83090</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3900,21 +3900,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>425164</v>
+        <v>425170</v>
       </c>
       <c r="R34" t="n">
-        <v>6712278</v>
+        <v>6712283</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,32 +1081,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066787</v>
+        <v>131066788</v>
       </c>
       <c r="B6" t="n">
-        <v>80384</v>
+        <v>83216</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>308</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425069</v>
+        <v>425211</v>
       </c>
       <c r="R6" t="n">
-        <v>6712290</v>
+        <v>6712276</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1178,32 +1178,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066788</v>
+        <v>131066787</v>
       </c>
       <c r="B7" t="n">
-        <v>83216</v>
+        <v>80384</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425211</v>
+        <v>425069</v>
       </c>
       <c r="R7" t="n">
-        <v>6712276</v>
+        <v>6712290</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066782</v>
+        <v>131066769</v>
       </c>
       <c r="B15" t="n">
-        <v>91823</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1991,34 +1991,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425059</v>
+        <v>425267</v>
       </c>
       <c r="R15" t="n">
-        <v>6712253</v>
+        <v>6712232</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2051,6 +2059,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2077,10 +2090,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066768</v>
+        <v>131066782</v>
       </c>
       <c r="B16" t="n">
-        <v>91809</v>
+        <v>91823</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2088,21 +2101,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2112,10 +2125,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425256</v>
+        <v>425059</v>
       </c>
       <c r="R16" t="n">
-        <v>6712203</v>
+        <v>6712253</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2174,32 +2187,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066761</v>
+        <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>91772</v>
+        <v>91809</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2209,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425072</v>
+        <v>425256</v>
       </c>
       <c r="R17" t="n">
-        <v>6712273</v>
+        <v>6712203</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2271,53 +2284,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066769</v>
+        <v>131066761</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91772</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>425267</v>
+        <v>425072</v>
       </c>
       <c r="R18" t="n">
-        <v>6712232</v>
+        <v>6712273</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2350,11 +2355,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -3488,10 +3488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066776</v>
+        <v>131066772</v>
       </c>
       <c r="B30" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,34 +3499,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>425069</v>
+        <v>425301</v>
       </c>
       <c r="R30" t="n">
-        <v>6712285</v>
+        <v>6712219</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3559,6 +3567,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3585,10 +3598,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066772</v>
+        <v>131066776</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3596,42 +3609,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>425301</v>
+        <v>425069</v>
       </c>
       <c r="R31" t="n">
-        <v>6712219</v>
+        <v>6712285</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3664,11 +3669,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1084,7 +1084,7 @@
         <v>131066788</v>
       </c>
       <c r="B6" t="n">
-        <v>83216</v>
+        <v>83217</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>131066787</v>
       </c>
       <c r="B7" t="n">
-        <v>80384</v>
+        <v>80385</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>131066783</v>
       </c>
       <c r="B9" t="n">
-        <v>83090</v>
+        <v>83091</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>131066760</v>
       </c>
       <c r="B11" t="n">
-        <v>91772</v>
+        <v>91773</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>131066781</v>
       </c>
       <c r="B12" t="n">
-        <v>83207</v>
+        <v>83208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>131066780</v>
       </c>
       <c r="B13" t="n">
-        <v>83207</v>
+        <v>83208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>131066792</v>
       </c>
       <c r="B14" t="n">
-        <v>83216</v>
+        <v>83217</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2090,32 +2090,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066782</v>
+        <v>131066761</v>
       </c>
       <c r="B16" t="n">
-        <v>91823</v>
+        <v>91773</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425059</v>
+        <v>425072</v>
       </c>
       <c r="R16" t="n">
-        <v>6712253</v>
+        <v>6712273</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2187,10 +2187,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066768</v>
+        <v>131066782</v>
       </c>
       <c r="B17" t="n">
-        <v>91809</v>
+        <v>91824</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2198,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425256</v>
+        <v>425059</v>
       </c>
       <c r="R17" t="n">
-        <v>6712203</v>
+        <v>6712253</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2284,32 +2284,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066761</v>
+        <v>131066768</v>
       </c>
       <c r="B18" t="n">
-        <v>91772</v>
+        <v>91810</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>425072</v>
+        <v>425256</v>
       </c>
       <c r="R18" t="n">
-        <v>6712273</v>
+        <v>6712203</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2601,53 +2601,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066774</v>
+        <v>131066766</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>92181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425250</v>
+        <v>425069</v>
       </c>
       <c r="R21" t="n">
-        <v>6712265</v>
+        <v>6712285</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2680,11 +2672,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2711,32 +2698,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B22" t="n">
-        <v>92180</v>
+        <v>81230</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2746,10 +2733,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R22" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2808,10 +2795,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B23" t="n">
-        <v>81229</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,34 +2806,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R23" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2879,6 +2874,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2908,7 +2908,7 @@
         <v>131066786</v>
       </c>
       <c r="B24" t="n">
-        <v>83090</v>
+        <v>83091</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>131066762</v>
       </c>
       <c r="B25" t="n">
-        <v>91772</v>
+        <v>91773</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>131066765</v>
       </c>
       <c r="B26" t="n">
-        <v>91772</v>
+        <v>91773</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>131066789</v>
       </c>
       <c r="B27" t="n">
-        <v>83216</v>
+        <v>83217</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>131066791</v>
       </c>
       <c r="B28" t="n">
-        <v>83216</v>
+        <v>83217</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>131066777</v>
       </c>
       <c r="B29" t="n">
-        <v>92228</v>
+        <v>92229</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066772</v>
+        <v>131066776</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>80351</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,42 +3499,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>425301</v>
+        <v>425069</v>
       </c>
       <c r="R30" t="n">
-        <v>6712219</v>
+        <v>6712285</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3567,11 +3559,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3598,10 +3585,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066776</v>
+        <v>131066772</v>
       </c>
       <c r="B31" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3609,34 +3596,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>425069</v>
+        <v>425301</v>
       </c>
       <c r="R31" t="n">
-        <v>6712285</v>
+        <v>6712219</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3669,6 +3664,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3698,7 +3698,7 @@
         <v>131066767</v>
       </c>
       <c r="B32" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>131066790</v>
       </c>
       <c r="B33" t="n">
-        <v>83216</v>
+        <v>83217</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>131066784</v>
       </c>
       <c r="B34" t="n">
-        <v>83090</v>
+        <v>83091</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1081,32 +1081,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131066788</v>
+        <v>131066787</v>
       </c>
       <c r="B6" t="n">
-        <v>83217</v>
+        <v>80385</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>308</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>425211</v>
+        <v>425069</v>
       </c>
       <c r="R6" t="n">
-        <v>6712276</v>
+        <v>6712290</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1178,32 +1178,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066787</v>
+        <v>131066788</v>
       </c>
       <c r="B7" t="n">
-        <v>80385</v>
+        <v>83217</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6463</v>
+        <v>308</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425069</v>
+        <v>425211</v>
       </c>
       <c r="R7" t="n">
-        <v>6712290</v>
+        <v>6712276</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1980,53 +1980,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066769</v>
+        <v>131066761</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>91773</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>425267</v>
+        <v>425072</v>
       </c>
       <c r="R15" t="n">
-        <v>6712232</v>
+        <v>6712273</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2059,11 +2051,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2090,32 +2077,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066761</v>
+        <v>131066782</v>
       </c>
       <c r="B16" t="n">
-        <v>91773</v>
+        <v>91824</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2125,10 +2112,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>425072</v>
+        <v>425059</v>
       </c>
       <c r="R16" t="n">
-        <v>6712273</v>
+        <v>6712253</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2187,10 +2174,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066782</v>
+        <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>91824</v>
+        <v>91810</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2198,21 +2185,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2222,10 +2209,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>425059</v>
+        <v>425256</v>
       </c>
       <c r="R17" t="n">
-        <v>6712253</v>
+        <v>6712203</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2284,10 +2271,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066768</v>
+        <v>131066769</v>
       </c>
       <c r="B18" t="n">
-        <v>91810</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2295,34 +2282,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>425256</v>
+        <v>425267</v>
       </c>
       <c r="R18" t="n">
-        <v>6712203</v>
+        <v>6712232</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2355,6 +2350,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 1480-2026 artfynd.xlsx
+++ b/artfynd/A 1480-2026 artfynd.xlsx
@@ -1178,10 +1178,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131066788</v>
+        <v>131066771</v>
       </c>
       <c r="B7" t="n">
-        <v>83217</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,34 +1189,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>425211</v>
+        <v>425297</v>
       </c>
       <c r="R7" t="n">
-        <v>6712276</v>
+        <v>6712214</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1249,6 +1257,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1275,10 +1288,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131066771</v>
+        <v>131066788</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>83217</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1286,42 +1299,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>425297</v>
+        <v>425211</v>
       </c>
       <c r="R8" t="n">
-        <v>6712214</v>
+        <v>6712276</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1354,11 +1359,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1595,7 +1595,7 @@
         <v>131066760</v>
       </c>
       <c r="B11" t="n">
-        <v>91773</v>
+        <v>91776</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>131066761</v>
       </c>
       <c r="B15" t="n">
-        <v>91773</v>
+        <v>91776</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>131066782</v>
       </c>
       <c r="B16" t="n">
-        <v>91824</v>
+        <v>91827</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>131066768</v>
       </c>
       <c r="B17" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2601,32 +2601,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066766</v>
+        <v>131066778</v>
       </c>
       <c r="B21" t="n">
-        <v>92181</v>
+        <v>81230</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2062</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>425069</v>
+        <v>425336</v>
       </c>
       <c r="R21" t="n">
-        <v>6712285</v>
+        <v>6712202</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066778</v>
+        <v>131066774</v>
       </c>
       <c r="B22" t="n">
-        <v>81230</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2709,34 +2709,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>425336</v>
+        <v>425250</v>
       </c>
       <c r="R22" t="n">
-        <v>6712202</v>
+        <v>6712265</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2769,6 +2777,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2795,53 +2808,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066774</v>
+        <v>131066766</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>92184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>425250</v>
+        <v>425069</v>
       </c>
       <c r="R23" t="n">
-        <v>6712265</v>
+        <v>6712285</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2874,11 +2879,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3005,7 +3005,7 @@
         <v>131066762</v>
       </c>
       <c r="B25" t="n">
-        <v>91773</v>
+        <v>91776</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>131066765</v>
       </c>
       <c r="B26" t="n">
-        <v>91773</v>
+        <v>91776</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>131066777</v>
       </c>
       <c r="B29" t="n">
-        <v>92229</v>
+        <v>92232</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131066776</v>
+        <v>131066772</v>
       </c>
       <c r="B30" t="n">
-        <v>80351</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,34 +3499,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>425069</v>
+        <v>425301</v>
       </c>
       <c r="R30" t="n">
-        <v>6712285</v>
+        <v>6712219</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3559,6 +3567,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3585,10 +3598,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131066772</v>
+        <v>131066776</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>80351</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3596,42 +3609,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>425301</v>
+        <v>425069</v>
       </c>
       <c r="R31" t="n">
-        <v>6712219</v>
+        <v>6712285</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3664,11 +3669,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3698,7 +3698,7 @@
         <v>131066767</v>
       </c>
       <c r="B32" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
